--- a/mibrand/Schedule.xlsx
+++ b/mibrand/Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongducbinh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongducbinh/Documents/WebDevManagement/WebsDev/mibrand/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,7 +280,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -335,6 +341,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,10 +363,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -642,7 +655,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,10 +665,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -812,48 +825,48 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7">
         <v>29</v>
       </c>
@@ -975,7 +988,7 @@
       <c r="AD9" s="18"/>
     </row>
     <row r="10" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="30">
         <f>A9+1</f>
         <v>2</v>
       </c>
@@ -1012,7 +1025,7 @@
       <c r="AD10" s="18"/>
     </row>
     <row r="11" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="30">
         <f>A10+1</f>
         <v>3</v>
       </c>
@@ -1049,7 +1062,7 @@
       <c r="AD11" s="18"/>
     </row>
     <row r="12" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="30">
         <f t="shared" ref="A12:A23" si="0">A11+1</f>
         <v>4</v>
       </c>
@@ -1065,7 +1078,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1086,7 +1099,7 @@
       <c r="AD12" s="18"/>
     </row>
     <row r="13" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1102,12 +1115,12 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
@@ -1139,14 +1152,14 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -1176,15 +1189,15 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="28"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
@@ -1197,7 +1210,7 @@
       <c r="AD15" s="18"/>
     </row>
     <row r="16" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1212,16 +1225,16 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
@@ -1234,7 +1247,7 @@
       <c r="AD16" s="18"/>
     </row>
     <row r="17" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1250,15 +1263,15 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="9"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
@@ -1271,7 +1284,7 @@
       <c r="AD17" s="18"/>
     </row>
     <row r="18" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1288,14 +1301,14 @@
       <c r="J18" s="16"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="28"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
@@ -1308,7 +1321,7 @@
       <c r="AD18" s="18"/>
     </row>
     <row r="19" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1325,14 +1338,14 @@
       <c r="J19" s="16"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="23"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="29"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
@@ -1371,7 +1384,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
-      <c r="V20" s="29"/>
+      <c r="V20" s="31"/>
       <c r="W20" s="9"/>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
@@ -1382,7 +1395,7 @@
       <c r="AD20" s="18"/>
     </row>
     <row r="21" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="30">
         <f>A20+1</f>
         <v>13</v>
       </c>
@@ -1400,15 +1413,15 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="28"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>

--- a/mibrand/Schedule.xlsx
+++ b/mibrand/Schedule.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongducbinh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BoPhanDichVu\WebsDev\mibrand\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="980" windowWidth="20780" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="3435" yWindow="975" windowWidth="20775" windowHeight="14925" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -106,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,8 +158,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,19 +175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC0D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,8 +196,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -265,16 +262,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -282,19 +306,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -306,13 +324,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -328,20 +343,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,18 +365,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,6 +411,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -642,20 +685,20 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1"/>
     <col min="3" max="30" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:30" ht="18.75">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -678,12 +721,12 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -705,12 +748,12 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -732,12 +775,12 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -759,12 +802,12 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -786,10 +829,10 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -811,685 +854,686 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:30">
+      <c r="A7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="24"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="7">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="21"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="5">
         <v>29</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>30</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>31</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>4</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>6</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>7</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>8</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <v>9</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <v>10</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>11</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <v>12</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <v>13</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="5">
         <v>14</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="5">
         <v>15</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="5">
         <v>16</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="5">
         <v>17</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="5">
         <v>18</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="5">
         <v>19</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="5">
         <v>20</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="5">
         <v>21</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="5">
         <v>22</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="5">
         <v>23</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="5">
         <v>24</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-    </row>
-    <row r="10" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="30">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-    </row>
-    <row r="11" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="C10" s="7"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="31">
         <f>A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-    </row>
-    <row r="12" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="31">
         <f t="shared" ref="A12:A23" si="0">A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-    </row>
-    <row r="13" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-    </row>
-    <row r="14" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-    </row>
-    <row r="15" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-    </row>
-    <row r="16" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <f t="shared" si="0"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="31">
+        <f>A15+1</f>
         <v>8</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-    </row>
-    <row r="17" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-    </row>
-    <row r="18" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-    </row>
-    <row r="19" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-    </row>
-    <row r="20" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <f t="shared" si="0"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="6">
+        <f>A19+1</f>
         <v>12</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
       <c r="V20" s="29"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-    </row>
-    <row r="21" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="W20" s="7"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+    </row>
+    <row r="21" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="6">
         <f>A20+1</f>
         <v>13</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="28"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-    </row>
-    <row r="22" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-    </row>
-    <row r="23" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+    </row>
+    <row r="23" spans="1:30" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
